--- a/biology/Botanique/Alstonia_scholaris/Alstonia_scholaris.xlsx
+++ b/biology/Botanique/Alstonia_scholaris/Alstonia_scholaris.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F5"/>
+  <dimension ref="A1:H5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,9 +490,11 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Alstonia scholaris (synonyme : Echites scholaris), de la famille des Apocynaceae, communément appelé Dita, quinquina d'Australie, quinquina d'Inde, alstonia des écoliers, arbre du diable, écorce amère[2], est un arbre tropical à feuilles persistantes, originaire du sous-continent indien et de l'Asie du Sud-Est.
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Alstonia scholaris (synonyme : Echites scholaris), de la famille des Apocynaceae, communément appelé Dita, quinquina d'Australie, quinquina d'Inde, alstonia des écoliers, arbre du diable, écorce amère, est un arbre tropical à feuilles persistantes, originaire du sous-continent indien et de l'Asie du Sud-Est.
 </t>
         </is>
       </c>
@@ -511,16 +523,18 @@
           <t>Description</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">Alstonia scholaris est un arbre glabre qui croît jusqu'à 40 m de hauteur.
 L'écorce est grisâtre et les ramilles produisent abondamment des lenticelles.
 L'écorce est presque inodore et très amère, et produit une sève laiteuse et amère.
-Les feuilles sont coriaces, luisantes au-dessus et blanches au-dessous[3].
+Les feuilles sont coriaces, luisantes au-dessus et blanches au-dessous.
 Les feuilles sont groupées en verticilles de 3 à 10. Leur forme est obovale ou étroitement spatulée, cunnéées à la base, et à l'apex arrondi. Les nervures latérales par paires de 25 à 50, et orientés à 80-90° par rapport à la veine centrale. Les pétioles sont longues de 1 à 3 cm.
 Les cymes sont denses et pubescentes. Le pédoncule est long de 4 à 7 cm. Les pédicelles sont généralement aussi longues ou plus courtes que le calice. La corolle est blanche et en forme de tube long de 6 à 10 mm. Les lobes sont largement ovées ou obovale de 2 à 4.5 mm. Les ovaires sont distincts et pubescentes. Les follicules sont distincts et linéaires.
-Les fleurs sont très parfumées, d'une odeur capiteuse et agréable [4]
-Les graines d'Alstonia scholaris sont de forme oblongue, avec des bords ciliées, et se terminent avec des touffes de poils de 1,5 à 2 cm[5].
+Les fleurs sont très parfumées, d'une odeur capiteuse et agréable 
+Les graines d'Alstonia scholaris sont de forme oblongue, avec des bords ciliées, et se terminent avec des touffes de poils de 1,5 à 2 cm.
 </t>
         </is>
       </c>
@@ -549,9 +563,11 @@
           <t>Répartition</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Alstonia scholaris est originaire des régions suivantes[6] :
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Alstonia scholaris est originaire des régions suivantes :
 Chine: Guangxi (sud-ouest), Yunnan (sud)
 Sous-continent indien : Inde, Népal, Sri Lanka
 Asie du Sud-Est: Cambodge, Myanmar, Thaïlande, Vietnam, Indonésie, Malaisie, Papouasie-Nouvelle-Guinée, Philippines, Viêtnam.
@@ -585,10 +601,12 @@
           <t>Utilisation</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t xml:space="preserve">L'écorce contient des alcaloïdes ditamine, échitenine et échitamine, utilisés pour servir d'alternative à la quinine. À un moment, une décoction d'écorce a été utilisée pour traiter la diarrhée et le paludisme, ou encore comme tonique, fébrifuge, emménagogue, anticholérique et vulnéraire. Une décoction de feuilles a été utilisée pour le béribéri[7]. L'ayurveda recommande Alstonia scholaris pour les problèmes intestinaux.
-Au Sri Lanka, son bois clair est utilisé pour la fabrications des cercueils. A Bornéo, le bois proche de la racine est très léger et de couleur blanche ; il est utilisé pour la flotte, les ustensiles de cuisine, les planches à découper et les bouchons, etc.[8] À Bali, c'est le bois principalement utilisé pour fabriquer les masques traditionnels, comme ceux utilisés dans la danse Topeng[9].
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t xml:space="preserve">L'écorce contient des alcaloïdes ditamine, échitenine et échitamine, utilisés pour servir d'alternative à la quinine. À un moment, une décoction d'écorce a été utilisée pour traiter la diarrhée et le paludisme, ou encore comme tonique, fébrifuge, emménagogue, anticholérique et vulnéraire. Une décoction de feuilles a été utilisée pour le béribéri. L'ayurveda recommande Alstonia scholaris pour les problèmes intestinaux.
+Au Sri Lanka, son bois clair est utilisé pour la fabrications des cercueils. A Bornéo, le bois proche de la racine est très léger et de couleur blanche ; il est utilisé pour la flotte, les ustensiles de cuisine, les planches à découper et les bouchons, etc. À Bali, c'est le bois principalement utilisé pour fabriquer les masques traditionnels, comme ceux utilisés dans la danse Topeng.
 </t>
         </is>
       </c>
